--- a/User_Data/GM2_Data/M2_Data/China_M2.xlsx
+++ b/User_Data/GM2_Data/M2_Data/China_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G339"/>
+  <dimension ref="A1:G340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8926,6 +8926,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" s="2" t="n">
+        <v>45352.45833333334</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNM2</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>304795220000000</v>
+      </c>
+      <c r="D340" t="n">
+        <v>304795220000000</v>
+      </c>
+      <c r="E340" t="n">
+        <v>304795220000000</v>
+      </c>
+      <c r="F340" t="n">
+        <v>304795220000000</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data/GM2_Data/M2_Data/China_M2.xlsx
+++ b/User_Data/GM2_Data/M2_Data/China_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G340"/>
+  <dimension ref="A1:G341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8951,6 +8951,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="341">
+      <c r="A341" s="2" t="n">
+        <v>45383.45833333334</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNM2</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>301067909000000</v>
+      </c>
+      <c r="D341" t="n">
+        <v>301067909000000</v>
+      </c>
+      <c r="E341" t="n">
+        <v>301067909000000</v>
+      </c>
+      <c r="F341" t="n">
+        <v>301067909000000</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data/GM2_Data/M2_Data/China_M2.xlsx
+++ b/User_Data/GM2_Data/M2_Data/China_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G341"/>
+  <dimension ref="A1:G342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8961,18 +8961,43 @@
         </is>
       </c>
       <c r="C341" t="n">
-        <v>301067909000000</v>
+        <v>301194200000000</v>
       </c>
       <c r="D341" t="n">
-        <v>301067909000000</v>
+        <v>301194200000000</v>
       </c>
       <c r="E341" t="n">
-        <v>301067909000000</v>
+        <v>301194200000000</v>
       </c>
       <c r="F341" t="n">
-        <v>301067909000000</v>
+        <v>301194200000000</v>
       </c>
       <c r="G341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="n">
+        <v>45413.41666666666</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNM2</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>301850670000000</v>
+      </c>
+      <c r="D342" t="n">
+        <v>301850670000000</v>
+      </c>
+      <c r="E342" t="n">
+        <v>301850670000000</v>
+      </c>
+      <c r="F342" t="n">
+        <v>301850670000000</v>
+      </c>
+      <c r="G342" t="n">
         <v>0</v>
       </c>
     </row>

--- a/User_Data/GM2_Data/M2_Data/China_M2.xlsx
+++ b/User_Data/GM2_Data/M2_Data/China_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G342"/>
+  <dimension ref="A1:G343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9001,6 +9001,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>45444.41666666666</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNM2</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>305016150000000</v>
+      </c>
+      <c r="D343" t="n">
+        <v>305016150000000</v>
+      </c>
+      <c r="E343" t="n">
+        <v>305016150000000</v>
+      </c>
+      <c r="F343" t="n">
+        <v>305016150000000</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data/GM2_Data/M2_Data/China_M2.xlsx
+++ b/User_Data/GM2_Data/M2_Data/China_M2.xlsx
@@ -478,7 +478,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>35065.45833333334</v>
+        <v>35065.04166666666</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -503,7 +503,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>35096.45833333334</v>
+        <v>35096.04166666666</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -528,7 +528,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>35125.45833333334</v>
+        <v>35125.04166666666</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>35156.41666666666</v>
+        <v>35156.08333333334</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -578,7 +578,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>35186.41666666666</v>
+        <v>35186.08333333334</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -603,7 +603,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>35217.41666666666</v>
+        <v>35217.08333333334</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -628,7 +628,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>35247.41666666666</v>
+        <v>35247.08333333334</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -653,7 +653,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>35278.41666666666</v>
+        <v>35278.08333333334</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>35309.41666666666</v>
+        <v>35309.08333333334</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>35339.41666666666</v>
+        <v>35339.08333333334</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>35370.45833333334</v>
+        <v>35370.04166666666</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>35400.45833333334</v>
+        <v>35400.04166666666</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>35431.45833333334</v>
+        <v>35431.04166666666</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>35462.45833333334</v>
+        <v>35462.04166666666</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>35490.45833333334</v>
+        <v>35490.04166666666</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>35521.41666666666</v>
+        <v>35521.08333333334</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>35551.41666666666</v>
+        <v>35551.08333333334</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>35582.41666666666</v>
+        <v>35582.08333333334</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>35612.41666666666</v>
+        <v>35612.08333333334</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>35643.41666666666</v>
+        <v>35643.08333333334</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>35674.41666666666</v>
+        <v>35674.08333333334</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>35704.41666666666</v>
+        <v>35704.08333333334</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>35735.45833333334</v>
+        <v>35735.04166666666</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>35765.45833333334</v>
+        <v>35765.04166666666</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>35796.45833333334</v>
+        <v>35796.04166666666</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>35827.45833333334</v>
+        <v>35827.04166666666</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>35855.45833333334</v>
+        <v>35855.04166666666</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>35886.41666666666</v>
+        <v>35886.08333333334</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>35916.41666666666</v>
+        <v>35916.08333333334</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>35947.41666666666</v>
+        <v>35947.08333333334</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>35977.41666666666</v>
+        <v>35977.08333333334</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>36008.41666666666</v>
+        <v>36008.08333333334</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>36039.41666666666</v>
+        <v>36039.08333333334</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>36069.41666666666</v>
+        <v>36069.08333333334</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>36100.45833333334</v>
+        <v>36100.04166666666</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>36130.45833333334</v>
+        <v>36130.04166666666</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>36161.45833333334</v>
+        <v>36161.04166666666</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>36192.45833333334</v>
+        <v>36192.04166666666</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>36220.45833333334</v>
+        <v>36220.04166666666</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>36251.41666666666</v>
+        <v>36251.08333333334</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>36281.41666666666</v>
+        <v>36281.08333333334</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>36312.41666666666</v>
+        <v>36312.08333333334</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>36342.41666666666</v>
+        <v>36342.08333333334</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>36373.41666666666</v>
+        <v>36373.08333333334</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>36404.41666666666</v>
+        <v>36404.08333333334</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>36434.41666666666</v>
+        <v>36434.08333333334</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>36465.45833333334</v>
+        <v>36465.04166666666</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>36495.45833333334</v>
+        <v>36495.04166666666</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>36526.45833333334</v>
+        <v>36526.04166666666</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>36557.45833333334</v>
+        <v>36557.04166666666</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>36586.45833333334</v>
+        <v>36586.04166666666</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>36617.41666666666</v>
+        <v>36617.08333333334</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>36647.41666666666</v>
+        <v>36647.08333333334</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>36678.41666666666</v>
+        <v>36678.08333333334</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>36708.41666666666</v>
+        <v>36708.08333333334</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>36739.41666666666</v>
+        <v>36739.08333333334</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>36770.45833333334</v>
+        <v>36770.08333333334</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>36800.45833333334</v>
+        <v>36800.08333333334</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>36831.45833333334</v>
+        <v>36831.04166666666</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>36861.45833333334</v>
+        <v>36861.04166666666</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>36892.45833333334</v>
+        <v>36892.04166666666</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>36923.45833333334</v>
+        <v>36923.04166666666</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>36951.45833333334</v>
+        <v>36951.04166666666</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>36982.41666666666</v>
+        <v>36982.08333333334</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>37012.41666666666</v>
+        <v>37012.08333333334</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>37043.41666666666</v>
+        <v>37043.08333333334</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>37073.41666666666</v>
+        <v>37073.08333333334</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>37104.41666666666</v>
+        <v>37104.08333333334</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>37135.41666666666</v>
+        <v>37135.08333333334</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>37165.41666666666</v>
+        <v>37165.08333333334</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>37196.45833333334</v>
+        <v>37196.04166666666</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>37226.45833333334</v>
+        <v>37226.04166666666</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>37257.45833333334</v>
+        <v>37257.04166666666</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>37288.45833333334</v>
+        <v>37288.04166666666</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>37316.45833333334</v>
+        <v>37316.04166666666</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.08333333334</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>37377.41666666666</v>
+        <v>37377.08333333334</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>37408.41666666666</v>
+        <v>37408.08333333334</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>37438.41666666666</v>
+        <v>37438.08333333334</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>37469.41666666666</v>
+        <v>37469.08333333334</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>37500.41666666666</v>
+        <v>37500.08333333334</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>37530.41666666666</v>
+        <v>37530.08333333334</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>37561.45833333334</v>
+        <v>37561.04166666666</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>37591.45833333334</v>
+        <v>37591.04166666666</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>37622.45833333334</v>
+        <v>37622.04166666666</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>37653.45833333334</v>
+        <v>37653.04166666666</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>37681.45833333334</v>
+        <v>37681.04166666666</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.08333333334</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>37742.41666666666</v>
+        <v>37742.08333333334</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>37773.41666666666</v>
+        <v>37773.08333333334</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>37803.41666666666</v>
+        <v>37803.08333333334</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>37834.41666666666</v>
+        <v>37834.08333333334</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>37865.41666666666</v>
+        <v>37865.08333333334</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>37895.41666666666</v>
+        <v>37895.08333333334</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>37926.45833333334</v>
+        <v>37926.04166666666</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>37956.45833333334</v>
+        <v>37956.04166666666</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>37987.45833333334</v>
+        <v>37987.04166666666</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>38018.45833333334</v>
+        <v>38018.04166666666</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>38047.45833333334</v>
+        <v>38047.04166666666</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.08333333334</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>38108.41666666666</v>
+        <v>38108.08333333334</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>38139.41666666666</v>
+        <v>38139.08333333334</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>38169.41666666666</v>
+        <v>38169.08333333334</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>38200.41666666666</v>
+        <v>38200.08333333334</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>38231.41666666666</v>
+        <v>38231.08333333334</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>38261.41666666666</v>
+        <v>38261.08333333334</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>38292.45833333334</v>
+        <v>38292.04166666666</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>38322.45833333334</v>
+        <v>38322.04166666666</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>38353.45833333334</v>
+        <v>38353.04166666666</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>38384.45833333334</v>
+        <v>38384.04166666666</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>38412.45833333334</v>
+        <v>38412.04166666666</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.08333333334</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>38473.41666666666</v>
+        <v>38473.08333333334</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>38504.41666666666</v>
+        <v>38504.08333333334</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>38534.41666666666</v>
+        <v>38534.08333333334</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>38565.41666666666</v>
+        <v>38565.08333333334</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>38596.41666666666</v>
+        <v>38596.08333333334</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>38626.41666666666</v>
+        <v>38626.08333333334</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>38657.45833333334</v>
+        <v>38657.04166666666</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>38687.45833333334</v>
+        <v>38687.04166666666</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>38718.45833333334</v>
+        <v>38718.04166666666</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>38749.45833333334</v>
+        <v>38749.04166666666</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>38777.45833333334</v>
+        <v>38777.04166666666</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>38808.45833333334</v>
+        <v>38808.08333333334</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>38838.41666666666</v>
+        <v>38838.08333333334</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>38869.41666666666</v>
+        <v>38869.08333333334</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>38899.41666666666</v>
+        <v>38899.08333333334</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>38930.41666666666</v>
+        <v>38930.08333333334</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>38961.41666666666</v>
+        <v>38961.08333333334</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.08333333334</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>39022.45833333334</v>
+        <v>39022.04166666666</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>39052.45833333334</v>
+        <v>39052.04166666666</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>39083.45833333334</v>
+        <v>39083.04166666666</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>39114.45833333334</v>
+        <v>39114.04166666666</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>39142.45833333334</v>
+        <v>39142.04166666666</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>39173.41666666666</v>
+        <v>39173.08333333334</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>39203.41666666666</v>
+        <v>39203.08333333334</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>39234.41666666666</v>
+        <v>39234.08333333334</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>39264.41666666666</v>
+        <v>39264.08333333334</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>39295.41666666666</v>
+        <v>39295.08333333334</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>39326.41666666666</v>
+        <v>39326.08333333334</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>39356.41666666666</v>
+        <v>39356.08333333334</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>39387.45833333334</v>
+        <v>39387.04166666666</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>39417.45833333334</v>
+        <v>39417.04166666666</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>39448.45833333334</v>
+        <v>39448.04166666666</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>39479.45833333334</v>
+        <v>39479.04166666666</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>39508.45833333334</v>
+        <v>39508.04166666666</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>39539.45833333334</v>
+        <v>39539.08333333334</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>39569.41666666666</v>
+        <v>39569.08333333334</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>39600.41666666666</v>
+        <v>39600.08333333334</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>39630.41666666666</v>
+        <v>39630.08333333334</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>39661.41666666666</v>
+        <v>39661.08333333334</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>39692.41666666666</v>
+        <v>39692.08333333334</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>39722.41666666666</v>
+        <v>39722.08333333334</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>39753.45833333334</v>
+        <v>39753.04166666666</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>39783.45833333334</v>
+        <v>39783.04166666666</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>39814.45833333334</v>
+        <v>39814.04166666666</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>39845.45833333334</v>
+        <v>39845.04166666666</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>39873.45833333334</v>
+        <v>39873.04166666666</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>39904.45833333334</v>
+        <v>39904.08333333334</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>39934.41666666666</v>
+        <v>39934.08333333334</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>39965.41666666666</v>
+        <v>39965.08333333334</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>39995.41666666666</v>
+        <v>39995.08333333334</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>40026.41666666666</v>
+        <v>40026.08333333334</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>40057.41666666666</v>
+        <v>40057.08333333334</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>40087.41666666666</v>
+        <v>40087.08333333334</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>40118.45833333334</v>
+        <v>40118.04166666666</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>40148.45833333334</v>
+        <v>40148.04166666666</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>40179.45833333334</v>
+        <v>40179.04166666666</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>40210.45833333334</v>
+        <v>40210.04166666666</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>40238.45833333334</v>
+        <v>40238.04166666666</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>40269.45833333334</v>
+        <v>40269.08333333334</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>40299.41666666666</v>
+        <v>40299.08333333334</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>40330.41666666666</v>
+        <v>40330.08333333334</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>40360.41666666666</v>
+        <v>40360.08333333334</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>40391.41666666666</v>
+        <v>40391.08333333334</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>40422.41666666666</v>
+        <v>40422.08333333334</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>40452.41666666666</v>
+        <v>40452.08333333334</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>40483.45833333334</v>
+        <v>40483.04166666666</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>40513.45833333334</v>
+        <v>40513.04166666666</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>40544.45833333334</v>
+        <v>40544.04166666666</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>40575.45833333334</v>
+        <v>40575.04166666666</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>40603.45833333334</v>
+        <v>40603.04166666666</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>40634.45833333334</v>
+        <v>40634.08333333334</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>40664.41666666666</v>
+        <v>40664.08333333334</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>40695.41666666666</v>
+        <v>40695.08333333334</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>40725.41666666666</v>
+        <v>40725.08333333334</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>40756.41666666666</v>
+        <v>40756.08333333334</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>40787.41666666666</v>
+        <v>40787.08333333334</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>40817.41666666666</v>
+        <v>40817.08333333334</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>40848.45833333334</v>
+        <v>40848.04166666666</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>40878.45833333334</v>
+        <v>40878.04166666666</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>40909.45833333334</v>
+        <v>40909.04166666666</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>40940.45833333334</v>
+        <v>40940.04166666666</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>40969.45833333334</v>
+        <v>40969.04166666666</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>41000.41666666666</v>
+        <v>41000.08333333334</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>41030.41666666666</v>
+        <v>41030.08333333334</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>41061.41666666666</v>
+        <v>41061.08333333334</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>41091.41666666666</v>
+        <v>41091.08333333334</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>41122.41666666666</v>
+        <v>41122.08333333334</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>41153.41666666666</v>
+        <v>41153.08333333334</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>41183.41666666666</v>
+        <v>41183.08333333334</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>41214.45833333334</v>
+        <v>41214.04166666666</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>41244.45833333334</v>
+        <v>41244.04166666666</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>41275.45833333334</v>
+        <v>41275.04166666666</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>41306.45833333334</v>
+        <v>41306.04166666666</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>41334.45833333334</v>
+        <v>41334.04166666666</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>41365.45833333334</v>
+        <v>41365.08333333334</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>41395.41666666666</v>
+        <v>41395.08333333334</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>41426.41666666666</v>
+        <v>41426.08333333334</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>41456.41666666666</v>
+        <v>41456.08333333334</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>41487.41666666666</v>
+        <v>41487.08333333334</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>41518.41666666666</v>
+        <v>41518.08333333334</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>41548.41666666666</v>
+        <v>41548.08333333334</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>41579.45833333334</v>
+        <v>41579.04166666666</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>41609.45833333334</v>
+        <v>41609.04166666666</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>41640.45833333334</v>
+        <v>41640.04166666666</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>41671.45833333334</v>
+        <v>41671.04166666666</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>41699.45833333334</v>
+        <v>41699.04166666666</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>41730.45833333334</v>
+        <v>41730.08333333334</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>41760.41666666666</v>
+        <v>41760.08333333334</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>41791.41666666666</v>
+        <v>41791.08333333334</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>41821.41666666666</v>
+        <v>41821.08333333334</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>41852.41666666666</v>
+        <v>41852.08333333334</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>41883.41666666666</v>
+        <v>41883.08333333334</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>41913.41666666666</v>
+        <v>41913.08333333334</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>41944.45833333334</v>
+        <v>41944.04166666666</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>41974.45833333334</v>
+        <v>41974.04166666666</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>42005.45833333334</v>
+        <v>42005.04166666666</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>42036.45833333334</v>
+        <v>42036.04166666666</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>42064.45833333334</v>
+        <v>42064.04166666666</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>42095.45833333334</v>
+        <v>42095.08333333334</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>42125.41666666666</v>
+        <v>42125.08333333334</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>42156.41666666666</v>
+        <v>42156.08333333334</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>42186.41666666666</v>
+        <v>42186.08333333334</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>42217.41666666666</v>
+        <v>42217.08333333334</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>42248.41666666666</v>
+        <v>42248.08333333334</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>42278.41666666666</v>
+        <v>42278.08333333334</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>42309.45833333334</v>
+        <v>42309.04166666666</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>42339.45833333334</v>
+        <v>42339.04166666666</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>42370.45833333334</v>
+        <v>42370.04166666666</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>42401.45833333334</v>
+        <v>42401.04166666666</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>42430.45833333334</v>
+        <v>42430.04166666666</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>42461.45833333334</v>
+        <v>42461.08333333334</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>42491.41666666666</v>
+        <v>42491.08333333334</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>42522.41666666666</v>
+        <v>42522.08333333334</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>42552.41666666666</v>
+        <v>42552.08333333334</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>42583.41666666666</v>
+        <v>42583.08333333334</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>42614.41666666666</v>
+        <v>42614.08333333334</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>42644.41666666666</v>
+        <v>42644.08333333334</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>42675.45833333334</v>
+        <v>42675.04166666666</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>42705.45833333334</v>
+        <v>42705.04166666666</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>42736.45833333334</v>
+        <v>42736.04166666666</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>42767.45833333334</v>
+        <v>42767.04166666666</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>42795.45833333334</v>
+        <v>42795.04166666666</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>42826.45833333334</v>
+        <v>42826.08333333334</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>42856.41666666666</v>
+        <v>42856.08333333334</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>42887.41666666666</v>
+        <v>42887.08333333334</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>42917.41666666666</v>
+        <v>42917.08333333334</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>42948.41666666666</v>
+        <v>42948.08333333334</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>42979.41666666666</v>
+        <v>42979.08333333334</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43009.45833333334</v>
+        <v>43009.08333333334</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43040.45833333334</v>
+        <v>43040.04166666666</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43070.45833333334</v>
+        <v>43070.04166666666</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43101.45833333334</v>
+        <v>43101.04166666666</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43132.45833333334</v>
+        <v>43132.04166666666</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43160.45833333334</v>
+        <v>43160.04166666666</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43191.41666666666</v>
+        <v>43191.08333333334</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43221.41666666666</v>
+        <v>43221.08333333334</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43252.41666666666</v>
+        <v>43252.08333333334</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43282.41666666666</v>
+        <v>43282.08333333334</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43313.41666666666</v>
+        <v>43313.08333333334</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43344.41666666666</v>
+        <v>43344.08333333334</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43374.41666666666</v>
+        <v>43374.08333333334</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43405.45833333334</v>
+        <v>43405.04166666666</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43435.45833333334</v>
+        <v>43435.04166666666</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43466.45833333334</v>
+        <v>43466.04166666666</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>43497.45833333334</v>
+        <v>43497.04166666666</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>43525.45833333334</v>
+        <v>43525.04166666666</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>43556.45833333334</v>
+        <v>43556.08333333334</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>43586.41666666666</v>
+        <v>43586.08333333334</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>43617.41666666666</v>
+        <v>43617.08333333334</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>43647.41666666666</v>
+        <v>43647.08333333334</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>43678.41666666666</v>
+        <v>43678.08333333334</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>43709.41666666666</v>
+        <v>43709.08333333334</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>43739.41666666666</v>
+        <v>43739.08333333334</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>43770.45833333334</v>
+        <v>43770.04166666666</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>43800.45833333334</v>
+        <v>43800.04166666666</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>43831.45833333334</v>
+        <v>43831.04166666666</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>43862.45833333334</v>
+        <v>43862.04166666666</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>43891.45833333334</v>
+        <v>43891.04166666666</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>43922.45833333334</v>
+        <v>43922.08333333334</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>43952.41666666666</v>
+        <v>43952.08333333334</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>43983.41666666666</v>
+        <v>43983.08333333334</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44013.41666666666</v>
+        <v>44013.08333333334</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44044.41666666666</v>
+        <v>44044.08333333334</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44075.41666666666</v>
+        <v>44075.08333333334</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>44105.41666666666</v>
+        <v>44105.08333333334</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44136.45833333334</v>
+        <v>44136.04166666666</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44166.45833333334</v>
+        <v>44166.04166666666</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44197.45833333334</v>
+        <v>44197.04166666666</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44228.45833333334</v>
+        <v>44228.04166666666</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44256.45833333334</v>
+        <v>44256.04166666666</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44287.45833333334</v>
+        <v>44287.08333333334</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44317.41666666666</v>
+        <v>44317.08333333334</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44348.41666666666</v>
+        <v>44348.08333333334</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44378.41666666666</v>
+        <v>44378.08333333334</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>44409.41666666666</v>
+        <v>44409.08333333334</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>44440.41666666666</v>
+        <v>44440.08333333334</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>44470.41666666666</v>
+        <v>44470.08333333334</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44501.45833333334</v>
+        <v>44501.04166666666</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44531.45833333334</v>
+        <v>44531.04166666666</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44562.45833333334</v>
+        <v>44562.04166666666</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44593.45833333334</v>
+        <v>44593.04166666666</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44621.45833333334</v>
+        <v>44621.04166666666</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44652.45833333334</v>
+        <v>44652.08333333334</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44682.41666666666</v>
+        <v>44682.08333333334</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44713.41666666666</v>
+        <v>44713.08333333334</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>44743.41666666666</v>
+        <v>44743.08333333334</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>44774.41666666666</v>
+        <v>44774.08333333334</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>44805.41666666666</v>
+        <v>44805.08333333334</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>44835.41666666666</v>
+        <v>44835.08333333334</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44866.45833333334</v>
+        <v>44866.04166666666</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44896.45833333334</v>
+        <v>44896.04166666666</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44927.45833333334</v>
+        <v>44927.04166666666</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44958.45833333334</v>
+        <v>44958.04166666666</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44986.45833333334</v>
+        <v>44986.04166666666</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45017.45833333334</v>
+        <v>45017.08333333334</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45047.41666666666</v>
+        <v>45047.08333333334</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45078.41666666666</v>
+        <v>45078.08333333334</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45108.41666666666</v>
+        <v>45108.08333333334</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45139.41666666666</v>
+        <v>45139.08333333334</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45170.41666666666</v>
+        <v>45170.08333333334</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45200.45833333334</v>
+        <v>45200.08333333334</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -8828,7 +8828,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45231.45833333334</v>
+        <v>45231.04166666666</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45261.45833333334</v>
+        <v>45261.04166666666</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45292.45833333334</v>
+        <v>45292.04166666666</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45323.45833333334</v>
+        <v>45323.04166666666</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45352.45833333334</v>
+        <v>45352.04166666666</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45383.45833333334</v>
+        <v>45383.08333333334</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45413.41666666666</v>
+        <v>45413.08333333334</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
@@ -9003,7 +9003,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45444.41666666666</v>
+        <v>45444.08333333334</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>

--- a/User_Data/GM2_Data/M2_Data/China_M2.xlsx
+++ b/User_Data/GM2_Data/M2_Data/China_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G343"/>
+  <dimension ref="A1:G345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>35065.04166666666</v>
+        <v>35065.41666666666</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -503,7 +503,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>35096.04166666666</v>
+        <v>35096.41666666666</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -528,7 +528,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>35125.04166666666</v>
+        <v>35125.41666666666</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>35156.08333333334</v>
+        <v>35156.41666666666</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -578,7 +578,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>35186.08333333334</v>
+        <v>35186.41666666666</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -603,7 +603,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>35217.08333333334</v>
+        <v>35217.41666666666</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -628,7 +628,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>35247.08333333334</v>
+        <v>35247.41666666666</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -653,7 +653,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>35278.08333333334</v>
+        <v>35278.41666666666</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>35309.08333333334</v>
+        <v>35309.41666666666</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -703,7 +703,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>35339.08333333334</v>
+        <v>35339.41666666666</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>35370.04166666666</v>
+        <v>35370.41666666666</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>35400.04166666666</v>
+        <v>35400.41666666666</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>35431.04166666666</v>
+        <v>35431.41666666666</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>35462.04166666666</v>
+        <v>35462.41666666666</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>35490.04166666666</v>
+        <v>35490.41666666666</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>35521.08333333334</v>
+        <v>35521.41666666666</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>35551.08333333334</v>
+        <v>35551.41666666666</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>35582.08333333334</v>
+        <v>35582.41666666666</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>35612.08333333334</v>
+        <v>35612.41666666666</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>35643.08333333334</v>
+        <v>35643.41666666666</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>35674.08333333334</v>
+        <v>35674.41666666666</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1003,7 +1003,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>35704.08333333334</v>
+        <v>35704.41666666666</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>35735.04166666666</v>
+        <v>35735.41666666666</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>35765.04166666666</v>
+        <v>35765.41666666666</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>35796.04166666666</v>
+        <v>35796.41666666666</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>35827.04166666666</v>
+        <v>35827.41666666666</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>35855.04166666666</v>
+        <v>35855.41666666666</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>35886.08333333334</v>
+        <v>35886.41666666666</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>35916.08333333334</v>
+        <v>35916.41666666666</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>35947.08333333334</v>
+        <v>35947.41666666666</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>35977.08333333334</v>
+        <v>35977.41666666666</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>36008.08333333334</v>
+        <v>36008.41666666666</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>36039.08333333334</v>
+        <v>36039.41666666666</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>36069.08333333334</v>
+        <v>36069.41666666666</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>36100.04166666666</v>
+        <v>36100.41666666666</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>36130.04166666666</v>
+        <v>36130.41666666666</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>36161.04166666666</v>
+        <v>36161.41666666666</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>36192.04166666666</v>
+        <v>36192.41666666666</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>36220.04166666666</v>
+        <v>36220.41666666666</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>36251.08333333334</v>
+        <v>36251.41666666666</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>36281.08333333334</v>
+        <v>36281.41666666666</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>36312.08333333334</v>
+        <v>36312.41666666666</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>36342.08333333334</v>
+        <v>36342.41666666666</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>36373.08333333334</v>
+        <v>36373.41666666666</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>36404.08333333334</v>
+        <v>36404.41666666666</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>36434.08333333334</v>
+        <v>36434.41666666666</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>36465.04166666666</v>
+        <v>36465.41666666666</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>36495.04166666666</v>
+        <v>36495.41666666666</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>36526.04166666666</v>
+        <v>36526.41666666666</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>36557.04166666666</v>
+        <v>36557.41666666666</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>36586.04166666666</v>
+        <v>36586.41666666666</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>36617.08333333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>36647.08333333334</v>
+        <v>36647.41666666666</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1803,7 +1803,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>36678.08333333334</v>
+        <v>36678.41666666666</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>36708.08333333334</v>
+        <v>36708.41666666666</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>36739.08333333334</v>
+        <v>36739.41666666666</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>36770.08333333334</v>
+        <v>36770.41666666666</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>36800.08333333334</v>
+        <v>36800.41666666666</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>36831.04166666666</v>
+        <v>36831.41666666666</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>36861.04166666666</v>
+        <v>36861.41666666666</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>36892.04166666666</v>
+        <v>36892.41666666666</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>36923.04166666666</v>
+        <v>36923.41666666666</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>36951.04166666666</v>
+        <v>36951.41666666666</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>36982.08333333334</v>
+        <v>36982.41666666666</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>37012.08333333334</v>
+        <v>37012.41666666666</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>37043.08333333334</v>
+        <v>37043.41666666666</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>37073.08333333334</v>
+        <v>37073.41666666666</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>37104.08333333334</v>
+        <v>37104.41666666666</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>37135.08333333334</v>
+        <v>37135.41666666666</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>37165.08333333334</v>
+        <v>37165.41666666666</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>37196.04166666666</v>
+        <v>37196.41666666666</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>37226.04166666666</v>
+        <v>37226.41666666666</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>37257.04166666666</v>
+        <v>37257.41666666666</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>37288.04166666666</v>
+        <v>37288.41666666666</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>37316.04166666666</v>
+        <v>37316.41666666666</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>37347.08333333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>37377.08333333334</v>
+        <v>37377.41666666666</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>37408.08333333334</v>
+        <v>37408.41666666666</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>37438.08333333334</v>
+        <v>37438.41666666666</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -2453,7 +2453,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>37469.08333333334</v>
+        <v>37469.41666666666</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>37500.08333333334</v>
+        <v>37500.41666666666</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>37530.08333333334</v>
+        <v>37530.41666666666</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>37561.04166666666</v>
+        <v>37561.41666666666</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>37591.04166666666</v>
+        <v>37591.41666666666</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>37622.04166666666</v>
+        <v>37622.41666666666</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>37653.04166666666</v>
+        <v>37653.41666666666</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>37681.04166666666</v>
+        <v>37681.41666666666</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>37712.08333333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>37742.08333333334</v>
+        <v>37742.41666666666</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>37773.08333333334</v>
+        <v>37773.41666666666</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>37803.08333333334</v>
+        <v>37803.41666666666</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>37834.08333333334</v>
+        <v>37834.41666666666</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>37865.08333333334</v>
+        <v>37865.41666666666</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>37895.08333333334</v>
+        <v>37895.41666666666</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>37926.04166666666</v>
+        <v>37926.41666666666</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>37956.04166666666</v>
+        <v>37956.41666666666</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>37987.04166666666</v>
+        <v>37987.41666666666</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>38018.04166666666</v>
+        <v>38018.41666666666</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>38047.04166666666</v>
+        <v>38047.41666666666</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>38078.08333333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>38108.08333333334</v>
+        <v>38108.41666666666</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>38139.08333333334</v>
+        <v>38139.41666666666</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>38169.08333333334</v>
+        <v>38169.41666666666</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>38200.08333333334</v>
+        <v>38200.41666666666</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>38231.08333333334</v>
+        <v>38231.41666666666</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>38261.08333333334</v>
+        <v>38261.41666666666</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>38292.04166666666</v>
+        <v>38292.41666666666</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>38322.04166666666</v>
+        <v>38322.41666666666</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>38353.04166666666</v>
+        <v>38353.41666666666</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>38384.04166666666</v>
+        <v>38384.41666666666</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>38412.04166666666</v>
+        <v>38412.41666666666</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>38443.08333333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>38473.08333333334</v>
+        <v>38473.41666666666</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>38504.08333333334</v>
+        <v>38504.41666666666</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>38534.08333333334</v>
+        <v>38534.41666666666</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>38565.08333333334</v>
+        <v>38565.41666666666</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>38596.08333333334</v>
+        <v>38596.41666666666</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>38626.08333333334</v>
+        <v>38626.41666666666</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>38657.04166666666</v>
+        <v>38657.41666666666</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>38687.04166666666</v>
+        <v>38687.41666666666</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>38718.04166666666</v>
+        <v>38718.41666666666</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>38749.04166666666</v>
+        <v>38749.41666666666</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>38777.04166666666</v>
+        <v>38777.41666666666</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>38808.08333333334</v>
+        <v>38808.41666666666</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>38838.08333333334</v>
+        <v>38838.41666666666</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>38869.08333333334</v>
+        <v>38869.41666666666</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>38899.08333333334</v>
+        <v>38899.41666666666</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>38930.08333333334</v>
+        <v>38930.41666666666</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>38961.08333333334</v>
+        <v>38961.41666666666</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>38991.08333333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>39022.04166666666</v>
+        <v>39022.41666666666</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>39052.04166666666</v>
+        <v>39052.41666666666</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>39083.04166666666</v>
+        <v>39083.41666666666</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>39114.04166666666</v>
+        <v>39114.41666666666</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>39142.04166666666</v>
+        <v>39142.41666666666</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>39173.08333333334</v>
+        <v>39173.41666666666</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>39203.08333333334</v>
+        <v>39203.41666666666</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>39234.08333333334</v>
+        <v>39234.41666666666</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>39264.08333333334</v>
+        <v>39264.41666666666</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>39295.08333333334</v>
+        <v>39295.41666666666</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -3978,7 +3978,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>39326.08333333334</v>
+        <v>39326.41666666666</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>39356.08333333334</v>
+        <v>39356.41666666666</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>39387.04166666666</v>
+        <v>39387.41666666666</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>39417.04166666666</v>
+        <v>39417.41666666666</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>39448.04166666666</v>
+        <v>39448.41666666666</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>39479.04166666666</v>
+        <v>39479.41666666666</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>39508.04166666666</v>
+        <v>39508.41666666666</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>39539.08333333334</v>
+        <v>39539.41666666666</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>39569.08333333334</v>
+        <v>39569.41666666666</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>39600.08333333334</v>
+        <v>39600.41666666666</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -4228,7 +4228,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>39630.08333333334</v>
+        <v>39630.41666666666</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>39661.08333333334</v>
+        <v>39661.41666666666</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>39692.08333333334</v>
+        <v>39692.41666666666</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>39722.08333333334</v>
+        <v>39722.41666666666</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>39753.04166666666</v>
+        <v>39753.41666666666</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>39783.04166666666</v>
+        <v>39783.41666666666</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>39814.04166666666</v>
+        <v>39814.41666666666</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>39845.04166666666</v>
+        <v>39845.41666666666</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>39873.04166666666</v>
+        <v>39873.41666666666</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>39904.08333333334</v>
+        <v>39904.41666666666</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>39934.08333333334</v>
+        <v>39934.41666666666</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>39965.08333333334</v>
+        <v>39965.41666666666</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>39995.08333333334</v>
+        <v>39995.41666666666</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>40026.08333333334</v>
+        <v>40026.41666666666</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>40057.08333333334</v>
+        <v>40057.41666666666</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>40087.08333333334</v>
+        <v>40087.41666666666</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>40118.04166666666</v>
+        <v>40118.41666666666</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>40148.04166666666</v>
+        <v>40148.41666666666</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>40179.04166666666</v>
+        <v>40179.41666666666</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>40210.04166666666</v>
+        <v>40210.41666666666</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>40238.04166666666</v>
+        <v>40238.41666666666</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>40269.08333333334</v>
+        <v>40269.41666666666</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -4778,7 +4778,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>40299.08333333334</v>
+        <v>40299.41666666666</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>40330.08333333334</v>
+        <v>40330.41666666666</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>40360.08333333334</v>
+        <v>40360.41666666666</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>40391.08333333334</v>
+        <v>40391.41666666666</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -4878,7 +4878,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>40422.08333333334</v>
+        <v>40422.41666666666</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>40452.08333333334</v>
+        <v>40452.41666666666</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>40483.04166666666</v>
+        <v>40483.41666666666</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>40513.04166666666</v>
+        <v>40513.41666666666</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>40544.04166666666</v>
+        <v>40544.41666666666</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>40575.04166666666</v>
+        <v>40575.41666666666</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>40603.04166666666</v>
+        <v>40603.41666666666</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>40634.08333333334</v>
+        <v>40634.41666666666</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>40664.08333333334</v>
+        <v>40664.41666666666</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -5103,7 +5103,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>40695.08333333334</v>
+        <v>40695.41666666666</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>40725.08333333334</v>
+        <v>40725.41666666666</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>40756.08333333334</v>
+        <v>40756.41666666666</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>40787.08333333334</v>
+        <v>40787.41666666666</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>40817.08333333334</v>
+        <v>40817.41666666666</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>40848.04166666666</v>
+        <v>40848.41666666666</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>40878.04166666666</v>
+        <v>40878.41666666666</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>40909.04166666666</v>
+        <v>40909.41666666666</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>40940.04166666666</v>
+        <v>40940.41666666666</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>40969.04166666666</v>
+        <v>40969.41666666666</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>41000.08333333334</v>
+        <v>41000.41666666666</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>41030.08333333334</v>
+        <v>41030.41666666666</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>41061.08333333334</v>
+        <v>41061.41666666666</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>41091.08333333334</v>
+        <v>41091.41666666666</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>41122.08333333334</v>
+        <v>41122.41666666666</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -5478,7 +5478,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>41153.08333333334</v>
+        <v>41153.41666666666</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>41183.08333333334</v>
+        <v>41183.41666666666</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>41214.04166666666</v>
+        <v>41214.41666666666</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>41244.04166666666</v>
+        <v>41244.41666666666</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>41275.04166666666</v>
+        <v>41275.41666666666</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>41306.04166666666</v>
+        <v>41306.41666666666</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>41334.04166666666</v>
+        <v>41334.41666666666</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>41365.08333333334</v>
+        <v>41365.41666666666</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -5678,7 +5678,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>41395.08333333334</v>
+        <v>41395.41666666666</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>41426.08333333334</v>
+        <v>41426.41666666666</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -5728,7 +5728,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>41456.08333333334</v>
+        <v>41456.41666666666</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>41487.08333333334</v>
+        <v>41487.41666666666</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>41518.08333333334</v>
+        <v>41518.41666666666</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>41548.08333333334</v>
+        <v>41548.41666666666</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>41579.04166666666</v>
+        <v>41579.41666666666</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>41609.04166666666</v>
+        <v>41609.41666666666</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>41640.04166666666</v>
+        <v>41640.41666666666</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>41671.04166666666</v>
+        <v>41671.41666666666</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>41699.04166666666</v>
+        <v>41699.41666666666</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>41730.08333333334</v>
+        <v>41730.41666666666</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>41760.08333333334</v>
+        <v>41760.41666666666</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -6003,7 +6003,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>41791.08333333334</v>
+        <v>41791.41666666666</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>41821.08333333334</v>
+        <v>41821.41666666666</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>41852.08333333334</v>
+        <v>41852.41666666666</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>41883.08333333334</v>
+        <v>41883.41666666666</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -6103,7 +6103,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>41913.08333333334</v>
+        <v>41913.41666666666</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>41944.04166666666</v>
+        <v>41944.41666666666</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>41974.04166666666</v>
+        <v>41974.41666666666</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>42005.04166666666</v>
+        <v>42005.41666666666</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>42036.04166666666</v>
+        <v>42036.41666666666</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>42064.04166666666</v>
+        <v>42064.41666666666</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>42095.08333333334</v>
+        <v>42095.41666666666</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -6278,7 +6278,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>42125.08333333334</v>
+        <v>42125.41666666666</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -6303,7 +6303,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>42156.08333333334</v>
+        <v>42156.41666666666</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>42186.08333333334</v>
+        <v>42186.41666666666</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>42217.08333333334</v>
+        <v>42217.41666666666</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -6378,7 +6378,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>42248.08333333334</v>
+        <v>42248.41666666666</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>42278.08333333334</v>
+        <v>42278.41666666666</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>42309.04166666666</v>
+        <v>42309.41666666666</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>42339.04166666666</v>
+        <v>42339.41666666666</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>42370.04166666666</v>
+        <v>42370.41666666666</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>42401.04166666666</v>
+        <v>42401.41666666666</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>42430.04166666666</v>
+        <v>42430.41666666666</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>42461.08333333334</v>
+        <v>42461.41666666666</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>42491.08333333334</v>
+        <v>42491.41666666666</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>42522.08333333334</v>
+        <v>42522.41666666666</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>42552.08333333334</v>
+        <v>42552.41666666666</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>42583.08333333334</v>
+        <v>42583.41666666666</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>42614.08333333334</v>
+        <v>42614.41666666666</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -6703,7 +6703,7 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>42644.08333333334</v>
+        <v>42644.41666666666</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>42675.04166666666</v>
+        <v>42675.41666666666</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>42705.04166666666</v>
+        <v>42705.41666666666</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>42736.04166666666</v>
+        <v>42736.41666666666</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>42767.04166666666</v>
+        <v>42767.41666666666</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>42795.04166666666</v>
+        <v>42795.41666666666</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>42826.08333333334</v>
+        <v>42826.41666666666</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -6878,7 +6878,7 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>42856.08333333334</v>
+        <v>42856.41666666666</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -6903,7 +6903,7 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>42887.08333333334</v>
+        <v>42887.41666666666</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -6928,7 +6928,7 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>42917.08333333334</v>
+        <v>42917.41666666666</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -6953,7 +6953,7 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>42948.08333333334</v>
+        <v>42948.41666666666</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>42979.08333333334</v>
+        <v>42979.41666666666</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43009.08333333334</v>
+        <v>43009.41666666666</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43040.04166666666</v>
+        <v>43040.41666666666</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43070.04166666666</v>
+        <v>43070.41666666666</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43101.04166666666</v>
+        <v>43101.41666666666</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43132.04166666666</v>
+        <v>43132.41666666666</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43160.04166666666</v>
+        <v>43160.41666666666</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>43191.08333333334</v>
+        <v>43191.41666666666</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>43221.08333333334</v>
+        <v>43221.41666666666</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -7203,7 +7203,7 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>43252.08333333334</v>
+        <v>43252.41666666666</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -7228,7 +7228,7 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>43282.08333333334</v>
+        <v>43282.41666666666</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>43313.08333333334</v>
+        <v>43313.41666666666</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -7278,7 +7278,7 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>43344.08333333334</v>
+        <v>43344.41666666666</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -7303,7 +7303,7 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>43374.08333333334</v>
+        <v>43374.41666666666</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43405.04166666666</v>
+        <v>43405.41666666666</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43435.04166666666</v>
+        <v>43435.41666666666</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43466.04166666666</v>
+        <v>43466.41666666666</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>43497.04166666666</v>
+        <v>43497.41666666666</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>43525.04166666666</v>
+        <v>43525.41666666666</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>43556.08333333334</v>
+        <v>43556.41666666666</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -7478,7 +7478,7 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>43586.08333333334</v>
+        <v>43586.41666666666</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -7503,7 +7503,7 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>43617.08333333334</v>
+        <v>43617.41666666666</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -7528,7 +7528,7 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>43647.08333333334</v>
+        <v>43647.41666666666</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>43678.08333333334</v>
+        <v>43678.41666666666</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>43709.08333333334</v>
+        <v>43709.41666666666</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -7603,7 +7603,7 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>43739.08333333334</v>
+        <v>43739.41666666666</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>43770.04166666666</v>
+        <v>43770.41666666666</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>43800.04166666666</v>
+        <v>43800.41666666666</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>43831.04166666666</v>
+        <v>43831.41666666666</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>43862.04166666666</v>
+        <v>43862.41666666666</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>43891.04166666666</v>
+        <v>43891.41666666666</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>43922.08333333334</v>
+        <v>43922.41666666666</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>43952.08333333334</v>
+        <v>43952.41666666666</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -7803,7 +7803,7 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>43983.08333333334</v>
+        <v>43983.41666666666</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -7828,7 +7828,7 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>44013.08333333334</v>
+        <v>44013.41666666666</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>44044.08333333334</v>
+        <v>44044.41666666666</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -7878,7 +7878,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>44075.08333333334</v>
+        <v>44075.41666666666</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -7903,7 +7903,7 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>44105.08333333334</v>
+        <v>44105.41666666666</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44136.04166666666</v>
+        <v>44136.41666666666</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44166.04166666666</v>
+        <v>44166.41666666666</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44197.04166666666</v>
+        <v>44197.41666666666</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44228.04166666666</v>
+        <v>44228.41666666666</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44256.04166666666</v>
+        <v>44256.41666666666</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44287.08333333334</v>
+        <v>44287.41666666666</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>44317.08333333334</v>
+        <v>44317.41666666666</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -8103,7 +8103,7 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>44348.08333333334</v>
+        <v>44348.41666666666</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -8128,7 +8128,7 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>44378.08333333334</v>
+        <v>44378.41666666666</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>44409.08333333334</v>
+        <v>44409.41666666666</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>44440.08333333334</v>
+        <v>44440.41666666666</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>44470.08333333334</v>
+        <v>44470.41666666666</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44501.04166666666</v>
+        <v>44501.41666666666</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44531.04166666666</v>
+        <v>44531.41666666666</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44562.04166666666</v>
+        <v>44562.41666666666</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44593.04166666666</v>
+        <v>44593.41666666666</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44621.04166666666</v>
+        <v>44621.41666666666</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44652.08333333334</v>
+        <v>44652.41666666666</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>44682.08333333334</v>
+        <v>44682.41666666666</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>44713.08333333334</v>
+        <v>44713.41666666666</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>44743.08333333334</v>
+        <v>44743.41666666666</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -8453,7 +8453,7 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>44774.08333333334</v>
+        <v>44774.41666666666</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>44805.08333333334</v>
+        <v>44805.41666666666</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -8503,7 +8503,7 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>44835.08333333334</v>
+        <v>44835.41666666666</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44866.04166666666</v>
+        <v>44866.41666666666</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44896.04166666666</v>
+        <v>44896.41666666666</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44927.04166666666</v>
+        <v>44927.41666666666</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44958.04166666666</v>
+        <v>44958.41666666666</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44986.04166666666</v>
+        <v>44986.41666666666</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45017.08333333334</v>
+        <v>45017.41666666666</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -8678,7 +8678,7 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45047.08333333334</v>
+        <v>45047.41666666666</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -8703,7 +8703,7 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45078.08333333334</v>
+        <v>45078.41666666666</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45108.08333333334</v>
+        <v>45108.41666666666</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -8753,7 +8753,7 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45139.08333333334</v>
+        <v>45139.41666666666</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -8778,7 +8778,7 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45170.08333333334</v>
+        <v>45170.41666666666</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45200.08333333334</v>
+        <v>45200.41666666666</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -8828,7 +8828,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45231.04166666666</v>
+        <v>45231.41666666666</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45261.04166666666</v>
+        <v>45261.41666666666</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45292.04166666666</v>
+        <v>45292.41666666666</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45323.04166666666</v>
+        <v>45323.41666666666</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45352.04166666666</v>
+        <v>45352.41666666666</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45383.08333333334</v>
+        <v>45383.41666666666</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45413.08333333334</v>
+        <v>45413.41666666666</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
@@ -9003,7 +9003,7 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45444.08333333334</v>
+        <v>45444.41666666666</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
@@ -9023,6 +9023,56 @@
         <v>305016150000000</v>
       </c>
       <c r="G343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="n">
+        <v>45474.41666666666</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNM2</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>303306080000000</v>
+      </c>
+      <c r="D344" t="n">
+        <v>303306080000000</v>
+      </c>
+      <c r="E344" t="n">
+        <v>303306080000000</v>
+      </c>
+      <c r="F344" t="n">
+        <v>303306080000000</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="n">
+        <v>45505.41666666666</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNM2</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>305050000000000</v>
+      </c>
+      <c r="D345" t="n">
+        <v>305050000000000</v>
+      </c>
+      <c r="E345" t="n">
+        <v>305050000000000</v>
+      </c>
+      <c r="F345" t="n">
+        <v>305050000000000</v>
+      </c>
+      <c r="G345" t="n">
         <v>0</v>
       </c>
     </row>

--- a/User_Data/GM2_Data/M2_Data/China_M2.xlsx
+++ b/User_Data/GM2_Data/M2_Data/China_M2.xlsx
@@ -478,7 +478,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>35065.41666666666</v>
+        <v>35065.45833333334</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -503,7 +503,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>35096.41666666666</v>
+        <v>35096.45833333334</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -528,7 +528,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>35125.41666666666</v>
+        <v>35125.45833333334</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>35370.41666666666</v>
+        <v>35370.45833333334</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>35400.41666666666</v>
+        <v>35400.45833333334</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>35431.41666666666</v>
+        <v>35431.45833333334</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>35462.41666666666</v>
+        <v>35462.45833333334</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>35490.41666666666</v>
+        <v>35490.45833333334</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>35735.41666666666</v>
+        <v>35735.45833333334</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>35765.41666666666</v>
+        <v>35765.45833333334</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>35796.41666666666</v>
+        <v>35796.45833333334</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>35827.41666666666</v>
+        <v>35827.45833333334</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>35855.41666666666</v>
+        <v>35855.45833333334</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>36100.41666666666</v>
+        <v>36100.45833333334</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>36130.41666666666</v>
+        <v>36130.45833333334</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>36161.41666666666</v>
+        <v>36161.45833333334</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>36192.41666666666</v>
+        <v>36192.45833333334</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>36220.41666666666</v>
+        <v>36220.45833333334</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>36465.41666666666</v>
+        <v>36465.45833333334</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>36495.41666666666</v>
+        <v>36495.45833333334</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>36526.41666666666</v>
+        <v>36526.45833333334</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>36557.41666666666</v>
+        <v>36557.45833333334</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>36586.41666666666</v>
+        <v>36586.45833333334</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>36800.41666666666</v>
+        <v>36800.45833333334</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>36831.41666666666</v>
+        <v>36831.45833333334</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>36861.41666666666</v>
+        <v>36861.45833333334</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>36892.41666666666</v>
+        <v>36892.45833333334</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>36923.41666666666</v>
+        <v>36923.45833333334</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>36951.41666666666</v>
+        <v>36951.45833333334</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>37196.41666666666</v>
+        <v>37196.45833333334</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>37226.41666666666</v>
+        <v>37226.45833333334</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>37257.41666666666</v>
+        <v>37257.45833333334</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>37288.41666666666</v>
+        <v>37288.45833333334</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>37316.41666666666</v>
+        <v>37316.45833333334</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>37561.41666666666</v>
+        <v>37561.45833333334</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>37591.41666666666</v>
+        <v>37591.45833333334</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>37622.41666666666</v>
+        <v>37622.45833333334</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>37653.41666666666</v>
+        <v>37653.45833333334</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>37681.41666666666</v>
+        <v>37681.45833333334</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>37926.41666666666</v>
+        <v>37926.45833333334</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>37956.41666666666</v>
+        <v>37956.45833333334</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>37987.41666666666</v>
+        <v>37987.45833333334</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>38018.41666666666</v>
+        <v>38018.45833333334</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>38047.41666666666</v>
+        <v>38047.45833333334</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>38292.41666666666</v>
+        <v>38292.45833333334</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>38322.41666666666</v>
+        <v>38322.45833333334</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>38353.41666666666</v>
+        <v>38353.45833333334</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>38384.41666666666</v>
+        <v>38384.45833333334</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>38412.41666666666</v>
+        <v>38412.45833333334</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>38657.41666666666</v>
+        <v>38657.45833333334</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>38687.41666666666</v>
+        <v>38687.45833333334</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>38718.41666666666</v>
+        <v>38718.45833333334</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>38749.41666666666</v>
+        <v>38749.45833333334</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>38777.41666666666</v>
+        <v>38777.45833333334</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>38808.41666666666</v>
+        <v>38808.45833333334</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>39022.41666666666</v>
+        <v>39022.45833333334</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>39052.41666666666</v>
+        <v>39052.45833333334</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>39083.41666666666</v>
+        <v>39083.45833333334</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>39114.41666666666</v>
+        <v>39114.45833333334</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>39142.41666666666</v>
+        <v>39142.45833333334</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>39387.41666666666</v>
+        <v>39387.45833333334</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>39417.41666666666</v>
+        <v>39417.45833333334</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>39448.41666666666</v>
+        <v>39448.45833333334</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>39479.41666666666</v>
+        <v>39479.45833333334</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>39508.41666666666</v>
+        <v>39508.45833333334</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>39539.41666666666</v>
+        <v>39539.45833333334</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>39753.41666666666</v>
+        <v>39753.45833333334</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>39783.41666666666</v>
+        <v>39783.45833333334</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>39814.41666666666</v>
+        <v>39814.45833333334</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>39845.41666666666</v>
+        <v>39845.45833333334</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>39873.41666666666</v>
+        <v>39873.45833333334</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>39904.41666666666</v>
+        <v>39904.45833333334</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>40118.41666666666</v>
+        <v>40118.45833333334</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>40148.41666666666</v>
+        <v>40148.45833333334</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>40179.41666666666</v>
+        <v>40179.45833333334</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>40210.41666666666</v>
+        <v>40210.45833333334</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>40238.41666666666</v>
+        <v>40238.45833333334</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>40269.41666666666</v>
+        <v>40269.45833333334</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>40483.41666666666</v>
+        <v>40483.45833333334</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>40513.41666666666</v>
+        <v>40513.45833333334</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>40544.41666666666</v>
+        <v>40544.45833333334</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>40575.41666666666</v>
+        <v>40575.45833333334</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>40603.41666666666</v>
+        <v>40603.45833333334</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>40634.41666666666</v>
+        <v>40634.45833333334</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>40848.41666666666</v>
+        <v>40848.45833333334</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>40878.41666666666</v>
+        <v>40878.45833333334</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>40909.41666666666</v>
+        <v>40909.45833333334</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>40940.41666666666</v>
+        <v>40940.45833333334</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>40969.41666666666</v>
+        <v>40969.45833333334</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>41214.41666666666</v>
+        <v>41214.45833333334</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>41244.41666666666</v>
+        <v>41244.45833333334</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>41275.41666666666</v>
+        <v>41275.45833333334</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>41306.41666666666</v>
+        <v>41306.45833333334</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>41334.41666666666</v>
+        <v>41334.45833333334</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>41365.41666666666</v>
+        <v>41365.45833333334</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>41579.41666666666</v>
+        <v>41579.45833333334</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>41609.41666666666</v>
+        <v>41609.45833333334</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>41640.41666666666</v>
+        <v>41640.45833333334</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>41671.41666666666</v>
+        <v>41671.45833333334</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>41699.41666666666</v>
+        <v>41699.45833333334</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>41730.41666666666</v>
+        <v>41730.45833333334</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>41944.41666666666</v>
+        <v>41944.45833333334</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>41974.41666666666</v>
+        <v>41974.45833333334</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>42005.41666666666</v>
+        <v>42005.45833333334</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>42036.41666666666</v>
+        <v>42036.45833333334</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>42064.41666666666</v>
+        <v>42064.45833333334</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>42095.41666666666</v>
+        <v>42095.45833333334</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>42309.41666666666</v>
+        <v>42309.45833333334</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>42339.41666666666</v>
+        <v>42339.45833333334</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>42370.41666666666</v>
+        <v>42370.45833333334</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>42401.41666666666</v>
+        <v>42401.45833333334</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>42430.41666666666</v>
+        <v>42430.45833333334</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>42461.41666666666</v>
+        <v>42461.45833333334</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>42675.41666666666</v>
+        <v>42675.45833333334</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>42705.41666666666</v>
+        <v>42705.45833333334</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>42736.41666666666</v>
+        <v>42736.45833333334</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>42767.41666666666</v>
+        <v>42767.45833333334</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>42795.41666666666</v>
+        <v>42795.45833333334</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>42826.41666666666</v>
+        <v>42826.45833333334</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43009.41666666666</v>
+        <v>43009.45833333334</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43040.41666666666</v>
+        <v>43040.45833333334</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43070.41666666666</v>
+        <v>43070.45833333334</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43101.41666666666</v>
+        <v>43101.45833333334</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43132.41666666666</v>
+        <v>43132.45833333334</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43160.41666666666</v>
+        <v>43160.45833333334</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43405.41666666666</v>
+        <v>43405.45833333334</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43435.41666666666</v>
+        <v>43435.45833333334</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43466.41666666666</v>
+        <v>43466.45833333334</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>43497.41666666666</v>
+        <v>43497.45833333334</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>43525.41666666666</v>
+        <v>43525.45833333334</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>43556.41666666666</v>
+        <v>43556.45833333334</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>43770.41666666666</v>
+        <v>43770.45833333334</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>43800.41666666666</v>
+        <v>43800.45833333334</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>43831.41666666666</v>
+        <v>43831.45833333334</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>43862.41666666666</v>
+        <v>43862.45833333334</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>43891.41666666666</v>
+        <v>43891.45833333334</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>43922.41666666666</v>
+        <v>43922.45833333334</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44136.41666666666</v>
+        <v>44136.45833333334</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44166.41666666666</v>
+        <v>44166.45833333334</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44197.41666666666</v>
+        <v>44197.45833333334</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44228.41666666666</v>
+        <v>44228.45833333334</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44256.41666666666</v>
+        <v>44256.45833333334</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44287.41666666666</v>
+        <v>44287.45833333334</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44501.41666666666</v>
+        <v>44501.45833333334</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44531.41666666666</v>
+        <v>44531.45833333334</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44562.41666666666</v>
+        <v>44562.45833333334</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44593.41666666666</v>
+        <v>44593.45833333334</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44621.41666666666</v>
+        <v>44621.45833333334</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44652.41666666666</v>
+        <v>44652.45833333334</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44866.41666666666</v>
+        <v>44866.45833333334</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44896.41666666666</v>
+        <v>44896.45833333334</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44927.41666666666</v>
+        <v>44927.45833333334</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44958.41666666666</v>
+        <v>44958.45833333334</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44986.41666666666</v>
+        <v>44986.45833333334</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45017.41666666666</v>
+        <v>45017.45833333334</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45200.41666666666</v>
+        <v>45200.45833333334</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -8828,7 +8828,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45231.41666666666</v>
+        <v>45231.45833333334</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45261.41666666666</v>
+        <v>45261.45833333334</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45292.41666666666</v>
+        <v>45292.45833333334</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45323.41666666666</v>
+        <v>45323.45833333334</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45352.41666666666</v>
+        <v>45352.45833333334</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45383.41666666666</v>
+        <v>45383.45833333334</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>

--- a/User_Data/GM2_Data/M2_Data/China_M2.xlsx
+++ b/User_Data/GM2_Data/M2_Data/China_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G345"/>
+  <dimension ref="A1:G346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9061,18 +9061,43 @@
         </is>
       </c>
       <c r="C345" t="n">
-        <v>305050000000000</v>
+        <v>305046130000000</v>
       </c>
       <c r="D345" t="n">
-        <v>305050000000000</v>
+        <v>305046130000000</v>
       </c>
       <c r="E345" t="n">
-        <v>305050000000000</v>
+        <v>305046130000000</v>
       </c>
       <c r="F345" t="n">
-        <v>305050000000000</v>
+        <v>305046130000000</v>
       </c>
       <c r="G345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="n">
+        <v>45536.41666666666</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNM2</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>309479820000000</v>
+      </c>
+      <c r="D346" t="n">
+        <v>309479820000000</v>
+      </c>
+      <c r="E346" t="n">
+        <v>309479820000000</v>
+      </c>
+      <c r="F346" t="n">
+        <v>309479820000000</v>
+      </c>
+      <c r="G346" t="n">
         <v>0</v>
       </c>
     </row>

--- a/User_Data/GM2_Data/M2_Data/China_M2.xlsx
+++ b/User_Data/GM2_Data/M2_Data/China_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G346"/>
+  <dimension ref="A1:G348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9101,6 +9101,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="347">
+      <c r="A347" s="2" t="n">
+        <v>45566.41666666666</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNM2</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>309709200000000</v>
+      </c>
+      <c r="D347" t="n">
+        <v>309709200000000</v>
+      </c>
+      <c r="E347" t="n">
+        <v>309709200000000</v>
+      </c>
+      <c r="F347" t="n">
+        <v>309709200000000</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="n">
+        <v>45597.45833333334</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNM2</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>311876720000000</v>
+      </c>
+      <c r="D348" t="n">
+        <v>311876720000000</v>
+      </c>
+      <c r="E348" t="n">
+        <v>311876720000000</v>
+      </c>
+      <c r="F348" t="n">
+        <v>311876720000000</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data/GM2_Data/M2_Data/China_M2.xlsx
+++ b/User_Data/GM2_Data/M2_Data/China_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G348"/>
+  <dimension ref="A1:G352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>35065.45833333334</v>
+        <v>35065.41666666666</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -503,7 +503,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>35096.45833333334</v>
+        <v>35096.41666666666</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -528,7 +528,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>35125.45833333334</v>
+        <v>35125.41666666666</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>35370.45833333334</v>
+        <v>35370.41666666666</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>35400.45833333334</v>
+        <v>35400.41666666666</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>35431.45833333334</v>
+        <v>35431.41666666666</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>35462.45833333334</v>
+        <v>35462.41666666666</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>35490.45833333334</v>
+        <v>35490.41666666666</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>35735.45833333334</v>
+        <v>35735.41666666666</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>35765.45833333334</v>
+        <v>35765.41666666666</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>35796.45833333334</v>
+        <v>35796.41666666666</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>35827.45833333334</v>
+        <v>35827.41666666666</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>35855.45833333334</v>
+        <v>35855.41666666666</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>36100.45833333334</v>
+        <v>36100.41666666666</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>36130.45833333334</v>
+        <v>36130.41666666666</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>36161.45833333334</v>
+        <v>36161.41666666666</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>36192.45833333334</v>
+        <v>36192.41666666666</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>36220.45833333334</v>
+        <v>36220.41666666666</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>36465.45833333334</v>
+        <v>36465.41666666666</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>36495.45833333334</v>
+        <v>36495.41666666666</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>36526.45833333334</v>
+        <v>36526.41666666666</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>36557.45833333334</v>
+        <v>36557.41666666666</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>36586.45833333334</v>
+        <v>36586.41666666666</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>36770.45833333334</v>
+        <v>36770.41666666666</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>36800.45833333334</v>
+        <v>36800.41666666666</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>36831.45833333334</v>
+        <v>36831.41666666666</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>36861.45833333334</v>
+        <v>36861.41666666666</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>36892.45833333334</v>
+        <v>36892.41666666666</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>36923.45833333334</v>
+        <v>36923.41666666666</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>36951.45833333334</v>
+        <v>36951.41666666666</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>37196.45833333334</v>
+        <v>37196.41666666666</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>37226.45833333334</v>
+        <v>37226.41666666666</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>37257.45833333334</v>
+        <v>37257.41666666666</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>37288.45833333334</v>
+        <v>37288.41666666666</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>37316.45833333334</v>
+        <v>37316.41666666666</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>37561.45833333334</v>
+        <v>37561.41666666666</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>37591.45833333334</v>
+        <v>37591.41666666666</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>37622.45833333334</v>
+        <v>37622.41666666666</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>37653.45833333334</v>
+        <v>37653.41666666666</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>37681.45833333334</v>
+        <v>37681.41666666666</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>37926.45833333334</v>
+        <v>37926.41666666666</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>37956.45833333334</v>
+        <v>37956.41666666666</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>37987.45833333334</v>
+        <v>37987.41666666666</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>38018.45833333334</v>
+        <v>38018.41666666666</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>38047.45833333334</v>
+        <v>38047.41666666666</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>38292.45833333334</v>
+        <v>38292.41666666666</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>38322.45833333334</v>
+        <v>38322.41666666666</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>38353.45833333334</v>
+        <v>38353.41666666666</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>38384.45833333334</v>
+        <v>38384.41666666666</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>38412.45833333334</v>
+        <v>38412.41666666666</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>38657.45833333334</v>
+        <v>38657.41666666666</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>38687.45833333334</v>
+        <v>38687.41666666666</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>38718.45833333334</v>
+        <v>38718.41666666666</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>38749.45833333334</v>
+        <v>38749.41666666666</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>38777.45833333334</v>
+        <v>38777.41666666666</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>38808.45833333334</v>
+        <v>38808.41666666666</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>39022.45833333334</v>
+        <v>39022.41666666666</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>39052.45833333334</v>
+        <v>39052.41666666666</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>39083.45833333334</v>
+        <v>39083.41666666666</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>39114.45833333334</v>
+        <v>39114.41666666666</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>39142.45833333334</v>
+        <v>39142.41666666666</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>39387.45833333334</v>
+        <v>39387.41666666666</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>39417.45833333334</v>
+        <v>39417.41666666666</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>39448.45833333334</v>
+        <v>39448.41666666666</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>39479.45833333334</v>
+        <v>39479.41666666666</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>39508.45833333334</v>
+        <v>39508.41666666666</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>39539.45833333334</v>
+        <v>39539.41666666666</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>39753.45833333334</v>
+        <v>39753.41666666666</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>39783.45833333334</v>
+        <v>39783.41666666666</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>39814.45833333334</v>
+        <v>39814.41666666666</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>39845.45833333334</v>
+        <v>39845.41666666666</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>39873.45833333334</v>
+        <v>39873.41666666666</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>39904.45833333334</v>
+        <v>39904.41666666666</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>40118.45833333334</v>
+        <v>40118.41666666666</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>40148.45833333334</v>
+        <v>40148.41666666666</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>40179.45833333334</v>
+        <v>40179.41666666666</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>40210.45833333334</v>
+        <v>40210.41666666666</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>40238.45833333334</v>
+        <v>40238.41666666666</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>40269.45833333334</v>
+        <v>40269.41666666666</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>40483.45833333334</v>
+        <v>40483.41666666666</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>40513.45833333334</v>
+        <v>40513.41666666666</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>40544.45833333334</v>
+        <v>40544.41666666666</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>40575.45833333334</v>
+        <v>40575.41666666666</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>40603.45833333334</v>
+        <v>40603.41666666666</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>40634.45833333334</v>
+        <v>40634.41666666666</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>40848.45833333334</v>
+        <v>40848.41666666666</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>40878.45833333334</v>
+        <v>40878.41666666666</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>40909.45833333334</v>
+        <v>40909.41666666666</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>40940.45833333334</v>
+        <v>40940.41666666666</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>40969.45833333334</v>
+        <v>40969.41666666666</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>41214.45833333334</v>
+        <v>41214.41666666666</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>41244.45833333334</v>
+        <v>41244.41666666666</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>41275.45833333334</v>
+        <v>41275.41666666666</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>41306.45833333334</v>
+        <v>41306.41666666666</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>41334.45833333334</v>
+        <v>41334.41666666666</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>41365.45833333334</v>
+        <v>41365.41666666666</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>41579.45833333334</v>
+        <v>41579.41666666666</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>41609.45833333334</v>
+        <v>41609.41666666666</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>41640.45833333334</v>
+        <v>41640.41666666666</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>41671.45833333334</v>
+        <v>41671.41666666666</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>41699.45833333334</v>
+        <v>41699.41666666666</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>41730.45833333334</v>
+        <v>41730.41666666666</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>41944.45833333334</v>
+        <v>41944.41666666666</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>41974.45833333334</v>
+        <v>41974.41666666666</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>42005.45833333334</v>
+        <v>42005.41666666666</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>42036.45833333334</v>
+        <v>42036.41666666666</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>42064.45833333334</v>
+        <v>42064.41666666666</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>42095.45833333334</v>
+        <v>42095.41666666666</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>42309.45833333334</v>
+        <v>42309.41666666666</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>42339.45833333334</v>
+        <v>42339.41666666666</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>42370.45833333334</v>
+        <v>42370.41666666666</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>42401.45833333334</v>
+        <v>42401.41666666666</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>42430.45833333334</v>
+        <v>42430.41666666666</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>42461.45833333334</v>
+        <v>42461.41666666666</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>42675.45833333334</v>
+        <v>42675.41666666666</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>42705.45833333334</v>
+        <v>42705.41666666666</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>42736.45833333334</v>
+        <v>42736.41666666666</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>42767.45833333334</v>
+        <v>42767.41666666666</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>42795.45833333334</v>
+        <v>42795.41666666666</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>42826.45833333334</v>
+        <v>42826.41666666666</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43009.45833333334</v>
+        <v>43009.41666666666</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43040.45833333334</v>
+        <v>43040.41666666666</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43070.45833333334</v>
+        <v>43070.41666666666</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43101.45833333334</v>
+        <v>43101.41666666666</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43132.45833333334</v>
+        <v>43132.41666666666</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43160.45833333334</v>
+        <v>43160.41666666666</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43405.45833333334</v>
+        <v>43405.41666666666</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43435.45833333334</v>
+        <v>43435.41666666666</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43466.45833333334</v>
+        <v>43466.41666666666</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>43497.45833333334</v>
+        <v>43497.41666666666</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>43525.45833333334</v>
+        <v>43525.41666666666</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>43556.45833333334</v>
+        <v>43556.41666666666</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>43770.45833333334</v>
+        <v>43770.41666666666</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>43800.45833333334</v>
+        <v>43800.41666666666</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>43831.45833333334</v>
+        <v>43831.41666666666</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>43862.45833333334</v>
+        <v>43862.41666666666</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>43891.45833333334</v>
+        <v>43891.41666666666</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>43922.45833333334</v>
+        <v>43922.41666666666</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44136.45833333334</v>
+        <v>44136.41666666666</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44166.45833333334</v>
+        <v>44166.41666666666</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44197.45833333334</v>
+        <v>44197.41666666666</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44228.45833333334</v>
+        <v>44228.41666666666</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44256.45833333334</v>
+        <v>44256.41666666666</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44287.45833333334</v>
+        <v>44287.41666666666</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44501.45833333334</v>
+        <v>44501.41666666666</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44531.45833333334</v>
+        <v>44531.41666666666</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44562.45833333334</v>
+        <v>44562.41666666666</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44593.45833333334</v>
+        <v>44593.41666666666</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44621.45833333334</v>
+        <v>44621.41666666666</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44652.45833333334</v>
+        <v>44652.41666666666</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44866.45833333334</v>
+        <v>44866.41666666666</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44896.45833333334</v>
+        <v>44896.41666666666</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44927.45833333334</v>
+        <v>44927.41666666666</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44958.45833333334</v>
+        <v>44958.41666666666</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44986.45833333334</v>
+        <v>44986.41666666666</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45017.45833333334</v>
+        <v>45017.41666666666</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45200.45833333334</v>
+        <v>45200.41666666666</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -8828,7 +8828,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45231.45833333334</v>
+        <v>45231.41666666666</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45261.45833333334</v>
+        <v>45261.41666666666</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45292.45833333334</v>
+        <v>45292.41666666666</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45323.45833333334</v>
+        <v>45323.41666666666</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45352.45833333334</v>
+        <v>45352.41666666666</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45383.45833333334</v>
+        <v>45383.41666666666</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45597.45833333334</v>
+        <v>45597.41666666666</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
@@ -9136,18 +9136,118 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>311876720000000</v>
+        <v>311958730000000</v>
       </c>
       <c r="D348" t="n">
-        <v>311876720000000</v>
+        <v>311958730000000</v>
       </c>
       <c r="E348" t="n">
-        <v>311876720000000</v>
+        <v>311958730000000</v>
       </c>
       <c r="F348" t="n">
-        <v>311876720000000</v>
+        <v>311958730000000</v>
       </c>
       <c r="G348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="n">
+        <v>45627.41666666666</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNM2</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>313607140000000</v>
+      </c>
+      <c r="D349" t="n">
+        <v>313607140000000</v>
+      </c>
+      <c r="E349" t="n">
+        <v>313607140000000</v>
+      </c>
+      <c r="F349" t="n">
+        <v>313607140000000</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="n">
+        <v>45658.41666666666</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNM2</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>318458750000000</v>
+      </c>
+      <c r="D350" t="n">
+        <v>318458750000000</v>
+      </c>
+      <c r="E350" t="n">
+        <v>318458750000000</v>
+      </c>
+      <c r="F350" t="n">
+        <v>318458750000000</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="n">
+        <v>45689.41666666666</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNM2</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>320526310000000</v>
+      </c>
+      <c r="D351" t="n">
+        <v>320526310000000</v>
+      </c>
+      <c r="E351" t="n">
+        <v>320526310000000</v>
+      </c>
+      <c r="F351" t="n">
+        <v>320526310000000</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="n">
+        <v>45717.41666666666</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNM2</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>326130860000000</v>
+      </c>
+      <c r="D352" t="n">
+        <v>326130860000000</v>
+      </c>
+      <c r="E352" t="n">
+        <v>326130860000000</v>
+      </c>
+      <c r="F352" t="n">
+        <v>326130860000000</v>
+      </c>
+      <c r="G352" t="n">
         <v>0</v>
       </c>
     </row>

--- a/User_Data/GM2_Data/M2_Data/China_M2.xlsx
+++ b/User_Data/GM2_Data/M2_Data/China_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G348"/>
+  <dimension ref="A1:G352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>35156.41666666666</v>
+        <v>35156.45833333334</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>35521.41666666666</v>
+        <v>35521.45833333334</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>35886.41666666666</v>
+        <v>35886.45833333334</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>36251.41666666666</v>
+        <v>36251.45833333334</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>36617.41666666666</v>
+        <v>36617.45833333334</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>36770.45833333334</v>
+        <v>36770.41666666666</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.45833333334</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.45833333334</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -9136,18 +9136,118 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>311876720000000</v>
+        <v>311958730000000</v>
       </c>
       <c r="D348" t="n">
-        <v>311876720000000</v>
+        <v>311958730000000</v>
       </c>
       <c r="E348" t="n">
-        <v>311876720000000</v>
+        <v>311958730000000</v>
       </c>
       <c r="F348" t="n">
-        <v>311876720000000</v>
+        <v>311958730000000</v>
       </c>
       <c r="G348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="n">
+        <v>45627.45833333334</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNM2</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>313607140000000</v>
+      </c>
+      <c r="D349" t="n">
+        <v>313607140000000</v>
+      </c>
+      <c r="E349" t="n">
+        <v>313607140000000</v>
+      </c>
+      <c r="F349" t="n">
+        <v>313607140000000</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="n">
+        <v>45658.45833333334</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNM2</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>318458750000000</v>
+      </c>
+      <c r="D350" t="n">
+        <v>318458750000000</v>
+      </c>
+      <c r="E350" t="n">
+        <v>318458750000000</v>
+      </c>
+      <c r="F350" t="n">
+        <v>318458750000000</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="n">
+        <v>45689.45833333334</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNM2</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>320526310000000</v>
+      </c>
+      <c r="D351" t="n">
+        <v>320526310000000</v>
+      </c>
+      <c r="E351" t="n">
+        <v>320526310000000</v>
+      </c>
+      <c r="F351" t="n">
+        <v>320526310000000</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="n">
+        <v>45717.45833333334</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNM2</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>326130860000000</v>
+      </c>
+      <c r="D352" t="n">
+        <v>326130860000000</v>
+      </c>
+      <c r="E352" t="n">
+        <v>326130860000000</v>
+      </c>
+      <c r="F352" t="n">
+        <v>326130860000000</v>
+      </c>
+      <c r="G352" t="n">
         <v>0</v>
       </c>
     </row>

--- a/User_Data/GM2_Data/M2_Data/China_M2.xlsx
+++ b/User_Data/GM2_Data/M2_Data/China_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G352"/>
+  <dimension ref="A1:G354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>35156.45833333334</v>
+        <v>35156.41666666666</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>35521.45833333334</v>
+        <v>35521.41666666666</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>35886.45833333334</v>
+        <v>35886.41666666666</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>36251.45833333334</v>
+        <v>36251.41666666666</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>36617.45833333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -9236,18 +9236,68 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>326130860000000</v>
+        <v>326055460000000</v>
       </c>
       <c r="D352" t="n">
-        <v>326130860000000</v>
+        <v>326055460000000</v>
       </c>
       <c r="E352" t="n">
-        <v>326130860000000</v>
+        <v>326055460000000</v>
       </c>
       <c r="F352" t="n">
-        <v>326130860000000</v>
+        <v>326055460000000</v>
       </c>
       <c r="G352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="n">
+        <v>45748.45833333334</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNM2</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>325173930000000</v>
+      </c>
+      <c r="D353" t="n">
+        <v>325173930000000</v>
+      </c>
+      <c r="E353" t="n">
+        <v>325173930000000</v>
+      </c>
+      <c r="F353" t="n">
+        <v>325173930000000</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="n">
+        <v>45778.41666666666</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNM2</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>325696870000000</v>
+      </c>
+      <c r="D354" t="n">
+        <v>325696870000000</v>
+      </c>
+      <c r="E354" t="n">
+        <v>325696870000000</v>
+      </c>
+      <c r="F354" t="n">
+        <v>325696870000000</v>
+      </c>
+      <c r="G354" t="n">
         <v>0</v>
       </c>
     </row>

--- a/User_Data/GM2_Data/M2_Data/China_M2.xlsx
+++ b/User_Data/GM2_Data/M2_Data/China_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G352"/>
+  <dimension ref="A1:G357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>35065.41666666666</v>
+        <v>35065.45833333334</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -503,7 +503,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>35096.41666666666</v>
+        <v>35096.45833333334</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -528,7 +528,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>35125.41666666666</v>
+        <v>35125.45833333334</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>35156.41666666666</v>
+        <v>35156.45833333334</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>35370.41666666666</v>
+        <v>35370.45833333334</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>35400.41666666666</v>
+        <v>35400.45833333334</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>35431.41666666666</v>
+        <v>35431.45833333334</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>35462.41666666666</v>
+        <v>35462.45833333334</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>35490.41666666666</v>
+        <v>35490.45833333334</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>35521.41666666666</v>
+        <v>35521.45833333334</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>35735.41666666666</v>
+        <v>35735.45833333334</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>35765.41666666666</v>
+        <v>35765.45833333334</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>35796.41666666666</v>
+        <v>35796.45833333334</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>35827.41666666666</v>
+        <v>35827.45833333334</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>35855.41666666666</v>
+        <v>35855.45833333334</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>35886.41666666666</v>
+        <v>35886.45833333334</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>36100.41666666666</v>
+        <v>36100.45833333334</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>36130.41666666666</v>
+        <v>36130.45833333334</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>36161.41666666666</v>
+        <v>36161.45833333334</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>36192.41666666666</v>
+        <v>36192.45833333334</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>36220.41666666666</v>
+        <v>36220.45833333334</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>36251.41666666666</v>
+        <v>36251.45833333334</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>36465.41666666666</v>
+        <v>36465.45833333334</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>36495.41666666666</v>
+        <v>36495.45833333334</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>36526.41666666666</v>
+        <v>36526.45833333334</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>36557.41666666666</v>
+        <v>36557.45833333334</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>36586.41666666666</v>
+        <v>36586.45833333334</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>36617.41666666666</v>
+        <v>36617.45833333334</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>36800.41666666666</v>
+        <v>36800.45833333334</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>36831.41666666666</v>
+        <v>36831.45833333334</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>36861.41666666666</v>
+        <v>36861.45833333334</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>36892.41666666666</v>
+        <v>36892.45833333334</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>36923.41666666666</v>
+        <v>36923.45833333334</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>36951.41666666666</v>
+        <v>36951.45833333334</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>37196.41666666666</v>
+        <v>37196.45833333334</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>37226.41666666666</v>
+        <v>37226.45833333334</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>37257.41666666666</v>
+        <v>37257.45833333334</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>37288.41666666666</v>
+        <v>37288.45833333334</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>37316.41666666666</v>
+        <v>37316.45833333334</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.45833333334</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>37561.41666666666</v>
+        <v>37561.45833333334</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>37591.41666666666</v>
+        <v>37591.45833333334</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>37622.41666666666</v>
+        <v>37622.45833333334</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>37653.41666666666</v>
+        <v>37653.45833333334</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>37681.41666666666</v>
+        <v>37681.45833333334</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.45833333334</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>37926.41666666666</v>
+        <v>37926.45833333334</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>37956.41666666666</v>
+        <v>37956.45833333334</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>37987.41666666666</v>
+        <v>37987.45833333334</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>38018.41666666666</v>
+        <v>38018.45833333334</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>38047.41666666666</v>
+        <v>38047.45833333334</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>38292.41666666666</v>
+        <v>38292.45833333334</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>38322.41666666666</v>
+        <v>38322.45833333334</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>38353.41666666666</v>
+        <v>38353.45833333334</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>38384.41666666666</v>
+        <v>38384.45833333334</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>38412.41666666666</v>
+        <v>38412.45833333334</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3428,7 +3428,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>38657.41666666666</v>
+        <v>38657.45833333334</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>38687.41666666666</v>
+        <v>38687.45833333334</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>38718.41666666666</v>
+        <v>38718.45833333334</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>38749.41666666666</v>
+        <v>38749.45833333334</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>38777.41666666666</v>
+        <v>38777.45833333334</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>38808.41666666666</v>
+        <v>38808.45833333334</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>39022.41666666666</v>
+        <v>39022.45833333334</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>39052.41666666666</v>
+        <v>39052.45833333334</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -3778,7 +3778,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>39083.41666666666</v>
+        <v>39083.45833333334</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>39114.41666666666</v>
+        <v>39114.45833333334</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>39142.41666666666</v>
+        <v>39142.45833333334</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -4028,7 +4028,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>39387.41666666666</v>
+        <v>39387.45833333334</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>39417.41666666666</v>
+        <v>39417.45833333334</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>39448.41666666666</v>
+        <v>39448.45833333334</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>39479.41666666666</v>
+        <v>39479.45833333334</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>39508.41666666666</v>
+        <v>39508.45833333334</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>39539.41666666666</v>
+        <v>39539.45833333334</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>39753.41666666666</v>
+        <v>39753.45833333334</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -4353,7 +4353,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>39783.41666666666</v>
+        <v>39783.45833333334</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>39814.41666666666</v>
+        <v>39814.45833333334</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>39845.41666666666</v>
+        <v>39845.45833333334</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>39873.41666666666</v>
+        <v>39873.45833333334</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>39904.41666666666</v>
+        <v>39904.45833333334</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>40118.41666666666</v>
+        <v>40118.45833333334</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -4653,7 +4653,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>40148.41666666666</v>
+        <v>40148.45833333334</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>40179.41666666666</v>
+        <v>40179.45833333334</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>40210.41666666666</v>
+        <v>40210.45833333334</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>40238.41666666666</v>
+        <v>40238.45833333334</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>40269.41666666666</v>
+        <v>40269.45833333334</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>40483.41666666666</v>
+        <v>40483.45833333334</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>40513.41666666666</v>
+        <v>40513.45833333334</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -4978,7 +4978,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>40544.41666666666</v>
+        <v>40544.45833333334</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>40575.41666666666</v>
+        <v>40575.45833333334</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>40603.41666666666</v>
+        <v>40603.45833333334</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>40634.41666666666</v>
+        <v>40634.45833333334</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -5228,7 +5228,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>40848.41666666666</v>
+        <v>40848.45833333334</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>40878.41666666666</v>
+        <v>40878.45833333334</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>40909.41666666666</v>
+        <v>40909.45833333334</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -5303,7 +5303,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>40940.41666666666</v>
+        <v>40940.45833333334</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -5328,7 +5328,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>40969.41666666666</v>
+        <v>40969.45833333334</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -5528,7 +5528,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>41214.41666666666</v>
+        <v>41214.45833333334</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>41244.41666666666</v>
+        <v>41244.45833333334</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>41275.41666666666</v>
+        <v>41275.45833333334</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -5603,7 +5603,7 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>41306.41666666666</v>
+        <v>41306.45833333334</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>41334.41666666666</v>
+        <v>41334.45833333334</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>41365.41666666666</v>
+        <v>41365.45833333334</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>41579.41666666666</v>
+        <v>41579.45833333334</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>41609.41666666666</v>
+        <v>41609.45833333334</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>41640.41666666666</v>
+        <v>41640.45833333334</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>41671.41666666666</v>
+        <v>41671.45833333334</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>41699.41666666666</v>
+        <v>41699.45833333334</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>41730.41666666666</v>
+        <v>41730.45833333334</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>41944.41666666666</v>
+        <v>41944.45833333334</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -6153,7 +6153,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>41974.41666666666</v>
+        <v>41974.45833333334</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>42005.41666666666</v>
+        <v>42005.45833333334</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -6203,7 +6203,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>42036.41666666666</v>
+        <v>42036.45833333334</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>42064.41666666666</v>
+        <v>42064.45833333334</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -6253,7 +6253,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>42095.41666666666</v>
+        <v>42095.45833333334</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>42309.41666666666</v>
+        <v>42309.45833333334</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -6453,7 +6453,7 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>42339.41666666666</v>
+        <v>42339.45833333334</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -6478,7 +6478,7 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>42370.41666666666</v>
+        <v>42370.45833333334</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -6503,7 +6503,7 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>42401.41666666666</v>
+        <v>42401.45833333334</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>42430.41666666666</v>
+        <v>42430.45833333334</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>42461.41666666666</v>
+        <v>42461.45833333334</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -6728,7 +6728,7 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>42675.41666666666</v>
+        <v>42675.45833333334</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>42705.41666666666</v>
+        <v>42705.45833333334</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -6778,7 +6778,7 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>42736.41666666666</v>
+        <v>42736.45833333334</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>42767.41666666666</v>
+        <v>42767.45833333334</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -6828,7 +6828,7 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>42795.41666666666</v>
+        <v>42795.45833333334</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>42826.41666666666</v>
+        <v>42826.45833333334</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -7003,7 +7003,7 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>43009.41666666666</v>
+        <v>43009.45833333334</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>43040.41666666666</v>
+        <v>43040.45833333334</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>43070.41666666666</v>
+        <v>43070.45833333334</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>43101.41666666666</v>
+        <v>43101.45833333334</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>43132.41666666666</v>
+        <v>43132.45833333334</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -7128,7 +7128,7 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>43160.41666666666</v>
+        <v>43160.45833333334</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -7328,7 +7328,7 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>43405.41666666666</v>
+        <v>43405.45833333334</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>43435.41666666666</v>
+        <v>43435.45833333334</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>43466.41666666666</v>
+        <v>43466.45833333334</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>43497.41666666666</v>
+        <v>43497.45833333334</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>43525.41666666666</v>
+        <v>43525.45833333334</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>43556.41666666666</v>
+        <v>43556.45833333334</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -7628,7 +7628,7 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>43770.41666666666</v>
+        <v>43770.45833333334</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>43800.41666666666</v>
+        <v>43800.45833333334</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>43831.41666666666</v>
+        <v>43831.45833333334</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>43862.41666666666</v>
+        <v>43862.45833333334</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -7728,7 +7728,7 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>43891.41666666666</v>
+        <v>43891.45833333334</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -7753,7 +7753,7 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>43922.41666666666</v>
+        <v>43922.45833333334</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>44136.41666666666</v>
+        <v>44136.45833333334</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>44166.41666666666</v>
+        <v>44166.45833333334</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>44197.41666666666</v>
+        <v>44197.45833333334</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -8003,7 +8003,7 @@
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>44228.41666666666</v>
+        <v>44228.45833333334</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>44256.41666666666</v>
+        <v>44256.45833333334</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>44287.41666666666</v>
+        <v>44287.45833333334</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>44501.41666666666</v>
+        <v>44501.45833333334</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>44531.41666666666</v>
+        <v>44531.45833333334</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>44562.41666666666</v>
+        <v>44562.45833333334</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -8303,7 +8303,7 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>44593.41666666666</v>
+        <v>44593.45833333334</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>44621.41666666666</v>
+        <v>44621.45833333334</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>44652.41666666666</v>
+        <v>44652.45833333334</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>44866.41666666666</v>
+        <v>44866.45833333334</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>44896.41666666666</v>
+        <v>44896.45833333334</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>44927.41666666666</v>
+        <v>44927.45833333334</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -8603,7 +8603,7 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>44958.41666666666</v>
+        <v>44958.45833333334</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -8628,7 +8628,7 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>44986.41666666666</v>
+        <v>44986.45833333334</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45017.41666666666</v>
+        <v>45017.45833333334</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45200.41666666666</v>
+        <v>45200.45833333334</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -8828,7 +8828,7 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45231.41666666666</v>
+        <v>45231.45833333334</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45261.41666666666</v>
+        <v>45261.45833333334</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -8878,7 +8878,7 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45292.41666666666</v>
+        <v>45292.45833333334</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45323.41666666666</v>
+        <v>45323.45833333334</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45352.41666666666</v>
+        <v>45352.45833333334</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45383.41666666666</v>
+        <v>45383.45833333334</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45597.41666666666</v>
+        <v>45597.45833333334</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45627.41666666666</v>
+        <v>45627.45833333334</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
@@ -9178,7 +9178,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45658.41666666666</v>
+        <v>45658.45833333334</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
@@ -9203,7 +9203,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45689.41666666666</v>
+        <v>45689.45833333334</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
@@ -9228,7 +9228,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45717.41666666666</v>
+        <v>45717.45833333334</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
@@ -9236,18 +9236,143 @@
         </is>
       </c>
       <c r="C352" t="n">
-        <v>326130860000000</v>
+        <v>326055460000000</v>
       </c>
       <c r="D352" t="n">
-        <v>326130860000000</v>
+        <v>326055460000000</v>
       </c>
       <c r="E352" t="n">
-        <v>326130860000000</v>
+        <v>326055460000000</v>
       </c>
       <c r="F352" t="n">
-        <v>326130860000000</v>
+        <v>326055460000000</v>
       </c>
       <c r="G352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="n">
+        <v>45748.45833333334</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNM2</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>325173930000000</v>
+      </c>
+      <c r="D353" t="n">
+        <v>325173930000000</v>
+      </c>
+      <c r="E353" t="n">
+        <v>325173930000000</v>
+      </c>
+      <c r="F353" t="n">
+        <v>325173930000000</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="n">
+        <v>45778.41666666666</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNM2</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>325783810000000</v>
+      </c>
+      <c r="D354" t="n">
+        <v>325783810000000</v>
+      </c>
+      <c r="E354" t="n">
+        <v>325783810000000</v>
+      </c>
+      <c r="F354" t="n">
+        <v>325783810000000</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="n">
+        <v>45809.41666666666</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNM2</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>330332500000000</v>
+      </c>
+      <c r="D355" t="n">
+        <v>330332500000000</v>
+      </c>
+      <c r="E355" t="n">
+        <v>330332500000000</v>
+      </c>
+      <c r="F355" t="n">
+        <v>330332500000000</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="n">
+        <v>45839.41666666666</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNM2</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>329942910000000</v>
+      </c>
+      <c r="D356" t="n">
+        <v>329942910000000</v>
+      </c>
+      <c r="E356" t="n">
+        <v>329942910000000</v>
+      </c>
+      <c r="F356" t="n">
+        <v>329942910000000</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="n">
+        <v>45870.41666666666</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNM2</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>331983140000000</v>
+      </c>
+      <c r="D357" t="n">
+        <v>331983140000000</v>
+      </c>
+      <c r="E357" t="n">
+        <v>331983140000000</v>
+      </c>
+      <c r="F357" t="n">
+        <v>331983140000000</v>
+      </c>
+      <c r="G357" t="n">
         <v>0</v>
       </c>
     </row>

--- a/User_Data/GM2_Data/M2_Data/China_M2.xlsx
+++ b/User_Data/GM2_Data/M2_Data/China_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G357"/>
+  <dimension ref="A1:G360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,7 +553,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>35156.45833333334</v>
+        <v>35156.41666666666</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>35521.45833333334</v>
+        <v>35521.41666666666</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>35886.45833333334</v>
+        <v>35886.41666666666</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>36251.45833333334</v>
+        <v>36251.41666666666</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>36617.45833333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -9336,16 +9336,16 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>329942910000000</v>
+        <v>329942906000000</v>
       </c>
       <c r="D356" t="n">
-        <v>329942910000000</v>
+        <v>329942906000000</v>
       </c>
       <c r="E356" t="n">
-        <v>329942910000000</v>
+        <v>329942906000000</v>
       </c>
       <c r="F356" t="n">
-        <v>329942910000000</v>
+        <v>329942906000000</v>
       </c>
       <c r="G356" t="n">
         <v>0</v>
@@ -9361,18 +9361,93 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>331983140000000</v>
+        <v>331983144000000</v>
       </c>
       <c r="D357" t="n">
-        <v>331983140000000</v>
+        <v>331983144000000</v>
       </c>
       <c r="E357" t="n">
-        <v>331983140000000</v>
+        <v>331983144000000</v>
       </c>
       <c r="F357" t="n">
-        <v>331983140000000</v>
+        <v>331983144000000</v>
       </c>
       <c r="G357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="n">
+        <v>45901.41666666666</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNM2</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>335377100000000</v>
+      </c>
+      <c r="D358" t="n">
+        <v>335377100000000</v>
+      </c>
+      <c r="E358" t="n">
+        <v>335377100000000</v>
+      </c>
+      <c r="F358" t="n">
+        <v>335377100000000</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="n">
+        <v>45931.41666666666</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNM2</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>335105400000000</v>
+      </c>
+      <c r="D359" t="n">
+        <v>335105400000000</v>
+      </c>
+      <c r="E359" t="n">
+        <v>335105400000000</v>
+      </c>
+      <c r="F359" t="n">
+        <v>335105400000000</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="n">
+        <v>45962.45833333334</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNM2</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>336915400000000</v>
+      </c>
+      <c r="D360" t="n">
+        <v>336915400000000</v>
+      </c>
+      <c r="E360" t="n">
+        <v>336915400000000</v>
+      </c>
+      <c r="F360" t="n">
+        <v>336915400000000</v>
+      </c>
+      <c r="G360" t="n">
         <v>0</v>
       </c>
     </row>

--- a/User_Data/GM2_Data/M2_Data/China_M2.xlsx
+++ b/User_Data/GM2_Data/M2_Data/China_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G360"/>
+  <dimension ref="A1:G361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9436,18 +9436,43 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>336915400000000</v>
+        <v>336989050000000</v>
       </c>
       <c r="D360" t="n">
-        <v>336915400000000</v>
+        <v>336989050000000</v>
       </c>
       <c r="E360" t="n">
-        <v>336915400000000</v>
+        <v>336989050000000</v>
       </c>
       <c r="F360" t="n">
-        <v>336915400000000</v>
+        <v>336989050000000</v>
       </c>
       <c r="G360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="2" t="n">
+        <v>45992.45833333334</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>ECONOMICS:CNM2</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>340294810000000</v>
+      </c>
+      <c r="D361" t="n">
+        <v>340294810000000</v>
+      </c>
+      <c r="E361" t="n">
+        <v>340294810000000</v>
+      </c>
+      <c r="F361" t="n">
+        <v>340294810000000</v>
+      </c>
+      <c r="G361" t="n">
         <v>0</v>
       </c>
     </row>
